--- a/biology/Botanique/Hespéride_(botanique)/Hespéride_(botanique).xlsx
+++ b/biology/Botanique/Hespéride_(botanique)/Hespéride_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9ride_(botanique)</t>
+          <t>Hespéride_(botanique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En botanique, une hespéride est un type de baie possédant un exocarpe (pelure) épais et dont l'endocarpe est scindé en loges[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En botanique, une hespéride est un type de baie possédant un exocarpe (pelure) épais et dont l'endocarpe est scindé en loges.
 Les pamplemousses, les oranges, les limes et autres agrumes sont des exemples d'hespérides.
 La partie extérieure et pigmentée de la pelure composée de l'épicarpe et du mésocarpe est appelée flavédo. L'épicarpe contient des huiles essentielles. Quand on gratte la flavédo pour en extraire des fragments cela s’appelle le zeste. Le mésocarpe, partie intérieure et blanche est appelée albédo.
 Contrairement à la plupart des baies, la pelure des hespérides n'est généralement pas mangée à l'exception du kumquat dont le flavédo est sucré.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9ride_(botanique)</t>
+          <t>Hespéride_(botanique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les hespérides - souvent assimilées aux îles Canaries - étaient chez les Grecs des iles heureuses et fortunées à l'extrême ouest, au couchant : Hésiode dit «La nuit enfanta les Hespérides qui gardent les pommes d'or au sein de l'Océan, au lieu même où Atlas supporte le ciel» [2].  Diodore de Sicile en fait les 7 filles d'Atlas et d'Hespérie. Hercule réussit à s'emparer de quelques-unes de ces pommes d'or que les Hespérides cultivaient dans leur jardin [3].  Pierre-Joseph Amoreux (1806) dans sa Dissertation sur les pommes d'or des hespérides fait remonter l'assimilation des pommes d'or aux agrumes à l'ouvrage de  Giovanni Baptista Ferraro, jésuite siennois, consacré à la cultures des oranges, citrons et cédrats Hesperides sive De malorum aureorum cultura et usu libri quatuor paru à Rome en 1646 [4],[5].
-Linné donnera le nom d'Hesperideæ (1763) à un ordre contenant Eugenia, Psidium, Myrtus, Caryophilus... et classe Citrus dans un autre ordre [6],[7]. Egbert Buys (1773) y range les citrons, oranges; limons et le laurier[8]. Jussieu donne aux Hespéridées le rang de famille comprenant le citronnier, le limonier et jusqu'au thé (Camelia sinensis) [9]. En 1805, Lamarck et Augustin Pyramus De Candolle donnent enfin une définition avec une description du fruit assimilable à nos agrumes (avec Citrus medica et Citrus aurantium) et qui renvoie à Ferraro [10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hespérides - souvent assimilées aux îles Canaries - étaient chez les Grecs des iles heureuses et fortunées à l'extrême ouest, au couchant : Hésiode dit «La nuit enfanta les Hespérides qui gardent les pommes d'or au sein de l'Océan, au lieu même où Atlas supporte le ciel» .  Diodore de Sicile en fait les 7 filles d'Atlas et d'Hespérie. Hercule réussit à s'emparer de quelques-unes de ces pommes d'or que les Hespérides cultivaient dans leur jardin .  Pierre-Joseph Amoreux (1806) dans sa Dissertation sur les pommes d'or des hespérides fait remonter l'assimilation des pommes d'or aux agrumes à l'ouvrage de  Giovanni Baptista Ferraro, jésuite siennois, consacré à la cultures des oranges, citrons et cédrats Hesperides sive De malorum aureorum cultura et usu libri quatuor paru à Rome en 1646 ,.
+Linné donnera le nom d'Hesperideæ (1763) à un ordre contenant Eugenia, Psidium, Myrtus, Caryophilus... et classe Citrus dans un autre ordre ,. Egbert Buys (1773) y range les citrons, oranges; limons et le laurier. Jussieu donne aux Hespéridées le rang de famille comprenant le citronnier, le limonier et jusqu'au thé (Camelia sinensis) . En 1805, Lamarck et Augustin Pyramus De Candolle donnent enfin une définition avec une description du fruit assimilable à nos agrumes (avec Citrus medica et Citrus aurantium) et qui renvoie à Ferraro .
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9ride_(botanique)</t>
+          <t>Hespéride_(botanique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la base de données des publications numérisées par Google, le terme hespéridés est surtout utilisé au début du XIXe. Par la suite, il tombe progressivement en désuétude jusqu'à la seconde moitié du XXe[11]. En revanche, le terme agrume est de loin le plus fréquent depuis le début XXe, alors que Citrus est le plus fréquent antérieurement[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la base de données des publications numérisées par Google, le terme hespéridés est surtout utilisé au début du XIXe. Par la suite, il tombe progressivement en désuétude jusqu'à la seconde moitié du XXe. En revanche, le terme agrume est de loin le plus fréquent depuis le début XXe, alors que Citrus est le plus fréquent antérieurement.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9ride_(botanique)</t>
+          <t>Hespéride_(botanique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Effet photo-sensibilisant</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains ont un effet photo-sensibilisant[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains ont un effet photo-sensibilisant.
 </t>
         </is>
       </c>
